--- a/sheets/GetIN Traceability Form.xlsx
+++ b/sheets/GetIN Traceability Form.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="222">
   <si>
     <t xml:space="preserve">NAME OF HEALTHWORKER</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">0786907316</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: Created on 30/3/2020</t>
+    <t xml:space="preserve">Note: Created on 5/JUNE/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Geofrey Aisua Afayo</t>
@@ -424,27 +424,6 @@
     <t xml:space="preserve">0785815689</t>
   </si>
   <si>
-    <t xml:space="preserve">Muhammed Ndikyemara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0779826676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambulance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gideon Mugisha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0779952460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Mumbere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0775293692</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kabugho Annet</t>
   </si>
   <si>
@@ -689,6 +668,24 @@
   </si>
   <si>
     <t xml:space="preserve">0785815426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Adukule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0787188048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micheal Adomoti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0787188414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
   </si>
 </sst>
 </file>
@@ -815,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A481" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G489" activeCellId="0" sqref="G489"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6461,7 +6458,7 @@
         <v>135</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>127</v>
@@ -6475,13 +6472,13 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C282" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>127</v>
@@ -6495,13 +6492,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C283" s="1" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>127</v>
@@ -6515,10 +6512,10 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>8</v>
@@ -6535,10 +6532,10 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>22</v>
@@ -6555,13 +6552,13 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C286" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>127</v>
@@ -6575,13 +6572,13 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C287" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>127</v>
@@ -6590,18 +6587,18 @@
         <v>10</v>
       </c>
       <c r="F287" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C288" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>127</v>
@@ -6615,13 +6612,13 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C289" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>127</v>
@@ -6635,13 +6632,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C290" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>127</v>
@@ -6650,15 +6647,15 @@
         <v>10</v>
       </c>
       <c r="F290" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>8</v>
@@ -6675,10 +6672,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>8</v>
@@ -6690,18 +6687,18 @@
         <v>10</v>
       </c>
       <c r="F292" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C293" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>127</v>
@@ -6715,13 +6712,13 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C294" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>127</v>
@@ -6735,10 +6732,10 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>8</v>
@@ -6750,18 +6747,18 @@
         <v>10</v>
       </c>
       <c r="F295" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C296" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>127</v>
@@ -6775,13 +6772,13 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C297" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>127</v>
@@ -6795,13 +6792,13 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C298" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>127</v>
@@ -6815,10 +6812,10 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>8</v>
@@ -6830,15 +6827,15 @@
         <v>10</v>
       </c>
       <c r="F299" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>8</v>
@@ -6855,13 +6852,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C301" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>127</v>
@@ -6870,15 +6867,15 @@
         <v>10</v>
       </c>
       <c r="F301" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>8</v>
@@ -6890,15 +6887,15 @@
         <v>10</v>
       </c>
       <c r="F302" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>8</v>
@@ -6910,15 +6907,15 @@
         <v>10</v>
       </c>
       <c r="F303" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>8</v>
@@ -6930,15 +6927,15 @@
         <v>10</v>
       </c>
       <c r="F304" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>8</v>
@@ -6950,18 +6947,18 @@
         <v>10</v>
       </c>
       <c r="F305" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C306" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>127</v>
@@ -6970,18 +6967,18 @@
         <v>10</v>
       </c>
       <c r="F306" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C307" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>127</v>
@@ -6995,13 +6992,13 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="C308" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>127</v>
@@ -7010,15 +7007,15 @@
         <v>10</v>
       </c>
       <c r="F308" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>22</v>
@@ -7035,13 +7032,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C310" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>127</v>
@@ -7055,10 +7052,10 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>22</v>
@@ -7070,18 +7067,18 @@
         <v>10</v>
       </c>
       <c r="F311" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C312" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>127</v>
@@ -7090,15 +7087,15 @@
         <v>10</v>
       </c>
       <c r="F312" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>8</v>
@@ -7115,13 +7112,13 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C314" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>127</v>
@@ -7130,15 +7127,15 @@
         <v>10</v>
       </c>
       <c r="F314" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>8</v>
@@ -7150,15 +7147,15 @@
         <v>10</v>
       </c>
       <c r="F315" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>8</v>
@@ -7170,15 +7167,15 @@
         <v>10</v>
       </c>
       <c r="F316" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>8</v>
@@ -7190,15 +7187,15 @@
         <v>10</v>
       </c>
       <c r="F317" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>8</v>
@@ -7210,15 +7207,15 @@
         <v>10</v>
       </c>
       <c r="F318" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>8</v>
@@ -7230,15 +7227,15 @@
         <v>10</v>
       </c>
       <c r="F319" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>8</v>
@@ -7250,15 +7247,15 @@
         <v>10</v>
       </c>
       <c r="F320" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>8</v>
@@ -7270,15 +7267,15 @@
         <v>10</v>
       </c>
       <c r="F321" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>8</v>
@@ -7287,7 +7284,7 @@
         <v>127</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F322" s="1" t="n">
         <v>0</v>
@@ -7295,19 +7292,19 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F323" s="1" t="n">
         <v>0</v>
@@ -7315,10 +7312,10 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>8</v>
@@ -7327,7 +7324,7 @@
         <v>127</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F324" s="1" t="n">
         <v>1</v>
@@ -7335,10 +7332,10 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>8</v>
@@ -7353,15 +7350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>127</v>
@@ -7370,18 +7367,18 @@
         <v>121</v>
       </c>
       <c r="F326" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>127</v>
@@ -7390,15 +7387,15 @@
         <v>121</v>
       </c>
       <c r="F327" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>8</v>
@@ -7413,15 +7410,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>127</v>
@@ -7435,13 +7432,13 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>127</v>
@@ -7455,13 +7452,13 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>127</v>
@@ -7470,18 +7467,18 @@
         <v>121</v>
       </c>
       <c r="F331" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>127</v>
@@ -7490,18 +7487,18 @@
         <v>121</v>
       </c>
       <c r="F332" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>127</v>
@@ -7515,10 +7512,10 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>8</v>
@@ -7530,15 +7527,15 @@
         <v>121</v>
       </c>
       <c r="F334" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>8</v>
@@ -7555,13 +7552,13 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>127</v>
@@ -7575,13 +7572,13 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>127</v>
@@ -7590,15 +7587,15 @@
         <v>121</v>
       </c>
       <c r="F337" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>22</v>
@@ -7610,18 +7607,18 @@
         <v>121</v>
       </c>
       <c r="F338" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>127</v>
@@ -7635,10 +7632,10 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>8</v>
@@ -7650,15 +7647,15 @@
         <v>121</v>
       </c>
       <c r="F340" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>8</v>
@@ -7675,10 +7672,10 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>8</v>
@@ -7690,18 +7687,18 @@
         <v>121</v>
       </c>
       <c r="F342" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>127</v>
@@ -7710,18 +7707,18 @@
         <v>121</v>
       </c>
       <c r="F343" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>127</v>
@@ -7730,18 +7727,18 @@
         <v>121</v>
       </c>
       <c r="F344" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>127</v>
@@ -7750,15 +7747,15 @@
         <v>121</v>
       </c>
       <c r="F345" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>8</v>
@@ -7770,15 +7767,15 @@
         <v>121</v>
       </c>
       <c r="F346" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>8</v>
@@ -7790,15 +7787,15 @@
         <v>121</v>
       </c>
       <c r="F347" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>8</v>
@@ -7815,13 +7812,13 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>127</v>
@@ -7830,15 +7827,15 @@
         <v>121</v>
       </c>
       <c r="F349" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>8</v>
@@ -7850,18 +7847,18 @@
         <v>121</v>
       </c>
       <c r="F350" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>127</v>
@@ -7870,18 +7867,18 @@
         <v>121</v>
       </c>
       <c r="F351" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>127</v>
@@ -7890,18 +7887,18 @@
         <v>121</v>
       </c>
       <c r="F352" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>127</v>
@@ -7910,18 +7907,18 @@
         <v>121</v>
       </c>
       <c r="F353" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>127</v>
@@ -7930,15 +7927,15 @@
         <v>121</v>
       </c>
       <c r="F354" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>8</v>
@@ -7955,13 +7952,13 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>127</v>
@@ -7970,18 +7967,18 @@
         <v>121</v>
       </c>
       <c r="F356" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>127</v>
@@ -7990,18 +7987,18 @@
         <v>121</v>
       </c>
       <c r="F357" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>127</v>
@@ -8010,18 +8007,18 @@
         <v>121</v>
       </c>
       <c r="F358" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>127</v>
@@ -8030,18 +8027,18 @@
         <v>121</v>
       </c>
       <c r="F359" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>127</v>
@@ -8050,15 +8047,15 @@
         <v>121</v>
       </c>
       <c r="F360" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>8</v>
@@ -8070,18 +8067,18 @@
         <v>121</v>
       </c>
       <c r="F361" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>127</v>
@@ -8090,15 +8087,15 @@
         <v>121</v>
       </c>
       <c r="F362" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>8</v>
@@ -8115,10 +8112,10 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>8</v>
@@ -8135,10 +8132,10 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>8</v>
@@ -8155,10 +8152,10 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>8</v>
@@ -8170,15 +8167,15 @@
         <v>121</v>
       </c>
       <c r="F366" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>8</v>
@@ -8187,38 +8184,38 @@
         <v>127</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F367" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F368" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>8</v>
@@ -8227,7 +8224,7 @@
         <v>127</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F369" s="1" t="n">
         <v>0</v>
@@ -8235,10 +8232,10 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>8</v>
@@ -8247,7 +8244,7 @@
         <v>127</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F370" s="1" t="n">
         <v>0</v>
@@ -8255,10 +8252,10 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>8</v>
@@ -8267,38 +8264,38 @@
         <v>127</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F371" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F372" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>8</v>
@@ -8315,13 +8312,13 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>127</v>
@@ -8335,13 +8332,13 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>127</v>
@@ -8355,13 +8352,13 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>127</v>
@@ -8370,18 +8367,18 @@
         <v>122</v>
       </c>
       <c r="F376" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>127</v>
@@ -8390,18 +8387,18 @@
         <v>122</v>
       </c>
       <c r="F377" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>127</v>
@@ -8415,10 +8412,10 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>8</v>
@@ -8435,10 +8432,10 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>8</v>
@@ -8455,13 +8452,13 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>127</v>
@@ -8475,13 +8472,13 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>127</v>
@@ -8490,15 +8487,15 @@
         <v>122</v>
       </c>
       <c r="F382" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>22</v>
@@ -8515,13 +8512,13 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>127</v>
@@ -8535,10 +8532,10 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>8</v>
@@ -8555,10 +8552,10 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>8</v>
@@ -8575,10 +8572,10 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>8</v>
@@ -8590,18 +8587,18 @@
         <v>122</v>
       </c>
       <c r="F387" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>127</v>
@@ -8610,18 +8607,18 @@
         <v>122</v>
       </c>
       <c r="F388" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>127</v>
@@ -8630,18 +8627,18 @@
         <v>122</v>
       </c>
       <c r="F389" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>127</v>
@@ -8650,15 +8647,15 @@
         <v>122</v>
       </c>
       <c r="F390" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>8</v>
@@ -8670,15 +8667,15 @@
         <v>122</v>
       </c>
       <c r="F391" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>8</v>
@@ -8695,10 +8692,10 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>8</v>
@@ -8710,18 +8707,18 @@
         <v>122</v>
       </c>
       <c r="F393" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>127</v>
@@ -8730,15 +8727,15 @@
         <v>122</v>
       </c>
       <c r="F394" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>8</v>
@@ -8750,18 +8747,18 @@
         <v>122</v>
       </c>
       <c r="F395" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>127</v>
@@ -8770,18 +8767,18 @@
         <v>122</v>
       </c>
       <c r="F396" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>127</v>
@@ -8790,18 +8787,18 @@
         <v>122</v>
       </c>
       <c r="F397" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>127</v>
@@ -8810,18 +8807,18 @@
         <v>122</v>
       </c>
       <c r="F398" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>127</v>
@@ -8830,15 +8827,15 @@
         <v>122</v>
       </c>
       <c r="F399" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>8</v>
@@ -8855,13 +8852,13 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>127</v>
@@ -8870,18 +8867,18 @@
         <v>122</v>
       </c>
       <c r="F401" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>127</v>
@@ -8890,18 +8887,18 @@
         <v>122</v>
       </c>
       <c r="F402" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>127</v>
@@ -8910,18 +8907,18 @@
         <v>122</v>
       </c>
       <c r="F403" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>127</v>
@@ -8930,18 +8927,18 @@
         <v>122</v>
       </c>
       <c r="F404" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>127</v>
@@ -8950,15 +8947,15 @@
         <v>122</v>
       </c>
       <c r="F405" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>8</v>
@@ -8975,13 +8972,13 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>127</v>
@@ -8990,15 +8987,15 @@
         <v>122</v>
       </c>
       <c r="F407" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>8</v>
@@ -9010,15 +9007,15 @@
         <v>122</v>
       </c>
       <c r="F408" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>8</v>
@@ -9030,15 +9027,15 @@
         <v>122</v>
       </c>
       <c r="F409" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>8</v>
@@ -9055,10 +9052,10 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>8</v>
@@ -9070,15 +9067,15 @@
         <v>122</v>
       </c>
       <c r="F411" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>8</v>
@@ -9087,7 +9084,7 @@
         <v>127</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F412" s="1" t="n">
         <v>0</v>
@@ -9095,19 +9092,19 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F413" s="1" t="n">
         <v>0</v>
@@ -9115,10 +9112,10 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>8</v>
@@ -9127,7 +9124,7 @@
         <v>127</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F414" s="1" t="n">
         <v>0</v>
@@ -9135,10 +9132,10 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>8</v>
@@ -9147,18 +9144,18 @@
         <v>127</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F415" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>8</v>
@@ -9167,38 +9164,38 @@
         <v>127</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F416" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F417" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>8</v>
@@ -9210,18 +9207,18 @@
         <v>123</v>
       </c>
       <c r="F418" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>127</v>
@@ -9235,13 +9232,13 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>127</v>
@@ -9255,13 +9252,13 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>127</v>
@@ -9275,13 +9272,13 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>127</v>
@@ -9290,18 +9287,18 @@
         <v>123</v>
       </c>
       <c r="F422" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>127</v>
@@ -9315,10 +9312,10 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>8</v>
@@ -9330,15 +9327,15 @@
         <v>123</v>
       </c>
       <c r="F424" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>8</v>
@@ -9350,18 +9347,18 @@
         <v>123</v>
       </c>
       <c r="F425" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>127</v>
@@ -9375,13 +9372,13 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>127</v>
@@ -9390,15 +9387,15 @@
         <v>123</v>
       </c>
       <c r="F427" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>22</v>
@@ -9415,13 +9412,13 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>127</v>
@@ -9435,10 +9432,10 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>8</v>
@@ -9450,15 +9447,15 @@
         <v>123</v>
       </c>
       <c r="F430" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>8</v>
@@ -9470,15 +9467,15 @@
         <v>123</v>
       </c>
       <c r="F431" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>8</v>
@@ -9495,13 +9492,13 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>127</v>
@@ -9510,18 +9507,18 @@
         <v>123</v>
       </c>
       <c r="F433" s="1" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>127</v>
@@ -9530,18 +9527,18 @@
         <v>123</v>
       </c>
       <c r="F434" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>127</v>
@@ -9550,15 +9547,15 @@
         <v>123</v>
       </c>
       <c r="F435" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>8</v>
@@ -9575,10 +9572,10 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>8</v>
@@ -9595,10 +9592,10 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>8</v>
@@ -9610,18 +9607,18 @@
         <v>123</v>
       </c>
       <c r="F438" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>127</v>
@@ -9630,15 +9627,15 @@
         <v>123</v>
       </c>
       <c r="F439" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>8</v>
@@ -9650,18 +9647,18 @@
         <v>123</v>
       </c>
       <c r="F440" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>127</v>
@@ -9670,18 +9667,18 @@
         <v>123</v>
       </c>
       <c r="F441" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>127</v>
@@ -9690,18 +9687,18 @@
         <v>123</v>
       </c>
       <c r="F442" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>127</v>
@@ -9710,18 +9707,18 @@
         <v>123</v>
       </c>
       <c r="F443" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>127</v>
@@ -9730,15 +9727,15 @@
         <v>123</v>
       </c>
       <c r="F444" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>8</v>
@@ -9750,18 +9747,18 @@
         <v>123</v>
       </c>
       <c r="F445" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>127</v>
@@ -9770,18 +9767,18 @@
         <v>123</v>
       </c>
       <c r="F446" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>127</v>
@@ -9790,18 +9787,18 @@
         <v>123</v>
       </c>
       <c r="F447" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>127</v>
@@ -9810,18 +9807,18 @@
         <v>123</v>
       </c>
       <c r="F448" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>127</v>
@@ -9830,18 +9827,18 @@
         <v>123</v>
       </c>
       <c r="F449" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>127</v>
@@ -9855,10 +9852,10 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>8</v>
@@ -9875,13 +9872,13 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>127</v>
@@ -9890,15 +9887,15 @@
         <v>123</v>
       </c>
       <c r="F452" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>8</v>
@@ -9910,15 +9907,15 @@
         <v>123</v>
       </c>
       <c r="F453" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>8</v>
@@ -9935,10 +9932,10 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>8</v>
@@ -9955,10 +9952,10 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>8</v>
@@ -9970,15 +9967,15 @@
         <v>123</v>
       </c>
       <c r="F456" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>8</v>
@@ -9987,38 +9984,38 @@
         <v>127</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F457" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F458" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>8</v>
@@ -10027,7 +10024,7 @@
         <v>127</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F459" s="1" t="n">
         <v>0</v>
@@ -10035,10 +10032,10 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>8</v>
@@ -10047,7 +10044,7 @@
         <v>127</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F460" s="1" t="n">
         <v>0</v>
@@ -10055,10 +10052,10 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>8</v>
@@ -10067,7 +10064,7 @@
         <v>127</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F461" s="1" t="n">
         <v>0</v>
@@ -10075,30 +10072,30 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F462" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>8</v>
@@ -10115,13 +10112,13 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>127</v>
@@ -10135,13 +10132,13 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>127</v>
@@ -10155,13 +10152,13 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>127</v>
@@ -10170,18 +10167,18 @@
         <v>124</v>
       </c>
       <c r="F466" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>127</v>
@@ -10195,13 +10192,13 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>127</v>
@@ -10215,10 +10212,10 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>8</v>
@@ -10235,10 +10232,10 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>8</v>
@@ -10255,13 +10252,13 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>127</v>
@@ -10275,13 +10272,13 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>127</v>
@@ -10290,15 +10287,15 @@
         <v>124</v>
       </c>
       <c r="F472" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>22</v>
@@ -10315,13 +10312,13 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>127</v>
@@ -10335,10 +10332,10 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>8</v>
@@ -10355,10 +10352,10 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>8</v>
@@ -10375,10 +10372,10 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>8</v>
@@ -10395,13 +10392,13 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>127</v>
@@ -10410,18 +10407,18 @@
         <v>124</v>
       </c>
       <c r="F478" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>127</v>
@@ -10435,13 +10432,13 @@
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>127</v>
@@ -10455,10 +10452,10 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>8</v>
@@ -10475,10 +10472,10 @@
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>8</v>
@@ -10495,10 +10492,10 @@
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>8</v>
@@ -10515,13 +10512,13 @@
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>127</v>
@@ -10530,15 +10527,15 @@
         <v>124</v>
       </c>
       <c r="F484" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>8</v>
@@ -10550,18 +10547,18 @@
         <v>124</v>
       </c>
       <c r="F485" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>127</v>
@@ -10575,13 +10572,13 @@
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>127</v>
@@ -10590,18 +10587,18 @@
         <v>124</v>
       </c>
       <c r="F487" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>127</v>
@@ -10610,18 +10607,18 @@
         <v>124</v>
       </c>
       <c r="F488" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>127</v>
@@ -10635,10 +10632,10 @@
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>8</v>
@@ -10650,18 +10647,18 @@
         <v>124</v>
       </c>
       <c r="F490" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>127</v>
@@ -10670,18 +10667,18 @@
         <v>124</v>
       </c>
       <c r="F491" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>127</v>
@@ -10695,13 +10692,13 @@
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>127</v>
@@ -10710,18 +10707,18 @@
         <v>124</v>
       </c>
       <c r="F493" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>127</v>
@@ -10730,18 +10727,18 @@
         <v>124</v>
       </c>
       <c r="F494" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>127</v>
@@ -10755,10 +10752,10 @@
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>8</v>
@@ -10770,18 +10767,18 @@
         <v>124</v>
       </c>
       <c r="F496" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>127</v>
@@ -10795,10 +10792,10 @@
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>8</v>
@@ -10815,10 +10812,10 @@
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>8</v>
@@ -10835,10 +10832,10 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>8</v>
@@ -10855,10 +10852,10 @@
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>8</v>
@@ -10875,19 +10872,19 @@
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="F502" s="1" t="n">
         <v>0</v>
@@ -10895,19 +10892,19 @@
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="F503" s="1" t="n">
         <v>0</v>
@@ -10915,19 +10912,19 @@
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="F504" s="1" t="n">
         <v>0</v>
@@ -10935,19 +10932,19 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="B505" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E505" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D505" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E505" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F505" s="1" t="n">
         <v>0</v>
@@ -10955,19 +10952,19 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="F506" s="1" t="n">
         <v>0</v>
@@ -10975,30 +10972,3996 @@
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F507" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F508" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F509" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F510" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F511" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F512" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F513" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F514" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F515" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F516" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F517" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F518" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F519" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F520" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F521" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F522" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F523" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F524" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F525" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F526" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F527" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F528" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F529" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F530" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F531" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F532" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F533" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F534" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F535" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F536" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F537" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F538" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F539" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F540" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F541" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F542" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F543" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F544" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F545" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F546" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F547" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F548" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F549" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F550" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F551" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F552" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F553" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F554" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F555" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F556" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F557" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F558" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E559" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E507" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F507" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F559" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F560" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F561" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F562" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F563" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F564" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F565" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F566" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F567" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F568" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F569" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F570" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F571" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F572" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F573" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F574" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F575" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F576" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F577" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F578" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F579" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F580" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F581" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F582" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F583" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F584" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F585" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F586" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F587" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F588" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F589" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F590" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F591" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F592" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F593" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F594" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F595" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F596" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F597" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F598" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F599" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F600" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F601" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F602" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F603" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F604" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F605" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F606" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F607" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F608" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F609" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F610" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F611" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F612" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F613" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F614" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F615" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F616" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F617" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F618" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F619" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F620" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F621" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F622" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F623" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F624" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F625" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F626" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F627" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F628" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F629" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F630" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F631" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F632" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F633" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F634" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F635" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F636" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F637" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F638" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F639" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F640" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F641" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F642" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F643" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F644" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F645" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F646" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F647" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F648" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F649" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F650" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F651" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F652" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F653" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F654" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F655" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F656" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F657" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F658" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F659" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F660" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F661" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F662" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F663" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F664" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F665" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F666" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F667" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F668" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F669" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F670" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F671" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F672" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F673" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F674" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F675" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F676" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F677" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F678" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F679" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F680" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F681" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F682" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F683" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F684" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F685" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F686" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F687" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F688" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F689" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F690" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F691" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F692" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F693" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F694" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F695" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F696" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F697" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F698" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F699" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F700" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F701" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F702" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F703" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F704" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F705" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
